--- a/Selenium_Project/src/test/resources/DWS.xlsx
+++ b/Selenium_Project/src/test/resources/DWS.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="6150"/>
   </bookViews>
   <sheets>
     <sheet name="DWS" sheetId="1" r:id="rId1"/>
+    <sheet name="loginPage" sheetId="2" r:id="rId2"/>
+    <sheet name="FlipkartProducts" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:H18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>GENDER</t>
   </si>
@@ -62,6 +65,69 @@
   </si>
   <si>
     <t>jhansi@123</t>
+  </si>
+  <si>
+    <t>PRODUCTS</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>WashingMachine</t>
+  </si>
+  <si>
+    <t>Fridge</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>Knife</t>
+  </si>
+  <si>
+    <t>HardDisk</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Motherboard</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Blanket</t>
+  </si>
+  <si>
+    <t>BedSheet</t>
+  </si>
+  <si>
+    <t>Specs</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>Headset</t>
+  </si>
+  <si>
+    <t>speaker</t>
+  </si>
+  <si>
+    <t>charger</t>
+  </si>
+  <si>
+    <t>marker</t>
   </si>
 </sst>
 </file>
@@ -417,7 +483,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D1" sqref="D1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,4 +565,175 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>